--- a/output/GCN_positions_distance_stats.xlsx
+++ b/output/GCN_positions_distance_stats.xlsx
@@ -526,22 +526,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69.5541</t>
+          <t>69.554130</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>69.5532</t>
+          <t>69.553200</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-49.3696</t>
+          <t>-49.369609</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-49.3731</t>
+          <t>-49.373087</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -592,22 +592,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63.1490</t>
+          <t>63.148990</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>63.1490</t>
+          <t>63.149000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-44.8174</t>
+          <t>-44.817383</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-44.8174</t>
+          <t>-44.817387</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -658,22 +658,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.4778</t>
+          <t>66.477770</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>66.4777</t>
+          <t>66.477730</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-42.4936</t>
+          <t>-42.493641</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-42.4935</t>
+          <t>-42.493489</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -724,22 +724,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69.8724</t>
+          <t>69.872430</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>69.8722</t>
+          <t>69.872250</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-47.0366</t>
+          <t>-47.036584</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-47.0378</t>
+          <t>-47.037848</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -790,22 +790,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73.8406</t>
+          <t>73.840560</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>73.8405</t>
+          <t>73.840530</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-49.5317</t>
+          <t>-49.531653</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-49.5320</t>
+          <t>-49.531992</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -856,22 +856,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>77.1819</t>
+          <t>77.181900</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>77.1819</t>
+          <t>77.181900</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-61.1155</t>
+          <t>-61.115474</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-61.1155</t>
+          <t>-61.115484</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -922,22 +922,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>77.4414</t>
+          <t>77.441380</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>77.4414</t>
+          <t>77.441380</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-51.0834</t>
+          <t>-51.083437</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-51.0835</t>
+          <t>-51.083459</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -988,22 +988,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>69.4925</t>
+          <t>69.492470</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>69.4925</t>
+          <t>69.492450</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-49.7184</t>
+          <t>-49.718355</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-49.7185</t>
+          <t>-49.718511</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">

--- a/output/GCN_positions_distance_stats.xlsx
+++ b/output/GCN_positions_distance_stats.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2.2</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-6.6</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2.6</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>-0.3</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-0</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
